--- a/optimization/Gurobi/Children+Adults+Elderly/0.75 fraction/compiled.xlsx
+++ b/optimization/Gurobi/Children+Adults+Elderly/0.75 fraction/compiled.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
   <si>
     <t>Transport part</t>
   </si>
@@ -49,13 +49,13 @@
     <t>1(12.0 times)</t>
   </si>
   <si>
-    <t>1(50.0 times)</t>
-  </si>
-  <si>
-    <t>1(12.0 times), 2(10.0 times), 5(51.0 times), 6(26.0 times), 9(9.0 times)</t>
-  </si>
-  <si>
-    <t>1(112.0 times), 2(98.0 times), 3(101.0 times), 4(97.0 times), 5(156.0 times), 6(162.0 times), 7(117.0 times), 8(66.0 times), 9(179.0 times), 10(234.0 times)</t>
+    <t>1(51.0 times)</t>
+  </si>
+  <si>
+    <t>1(19.0 times), 2(9.0 times), 5(50.0 times), 6(25.0 times), 7(1.0 times), 9(13.0 times)</t>
+  </si>
+  <si>
+    <t>1(96.0 times), 2(121.0 times), 3(100.0 times), 4(125.0 times), 5(196.0 times), 6(150.0 times), 7(103.0 times), 8(104.0 times), 9(180.0 times), 10(273.0 times)</t>
   </si>
   <si>
     <t>1(648000.0 Rs)</t>
@@ -64,13 +64,13 @@
     <t>1(332400.0 Rs)</t>
   </si>
   <si>
-    <t>1(731335.0 Rs)</t>
-  </si>
-  <si>
-    <t>1(122936.0 Rs), 2(101280.0 Rs), 5(609267.0 Rs), 6(307138.0 Rs), 9(105646.0 Rs)</t>
-  </si>
-  <si>
-    <t>1(591819.0 Rs), 2(526685.0 Rs), 3(535691.0 Rs), 4(511073.0 Rs), 5(836559.0 Rs), 6(870667.0 Rs), 7(631188.0 Rs), 8(347064.0 Rs), 9(992070.0 Rs), 10(1184188.0 Rs)</t>
+    <t>1(716752.0 Rs)</t>
+  </si>
+  <si>
+    <t>1(199234.0 Rs), 2(93552.0 Rs), 5(593672.0 Rs), 6(297642.0 Rs), 7(11979.0 Rs), 9(161476.0 Rs)</t>
+  </si>
+  <si>
+    <t>1(508582.0 Rs), 2(657784.0 Rs), 3(527470.0 Rs), 4(660736.0 Rs), 5(1038380.0 Rs), 6(811500.0 Rs), 7(544450.0 Rs), 8(547954.0 Rs), 9(968723.0 Rs), 10(1387853.0 Rs)</t>
   </si>
   <si>
     <t>Inventory part</t>
@@ -100,31 +100,22 @@
     <t>I</t>
   </si>
   <si>
-    <t>1(4 times)</t>
-  </si>
-  <si>
-    <t>3(1 times)</t>
-  </si>
-  <si>
-    <t>1(0 times), 2(6 times), 3(2 times), 4(4 times), 5(5 times), 6(3 times), 7(3 times), 8(5 times), 9(3 times), 10(3 times)</t>
-  </si>
-  <si>
-    <t>1(30321.0 units)</t>
-  </si>
-  <si>
-    <t>3(8064.0 units)</t>
-  </si>
-  <si>
-    <t>1(1110 units), 2(1718 units), 3(2998 units), 4(2217 units), 5(2315 units), 6(2258 units), 7(2091 units), 8(2113 units), 9(2918 units), 10(2452 units)</t>
-  </si>
-  <si>
-    <t>1(36385 Rs)</t>
-  </si>
-  <si>
-    <t>3(2215.0 Rs)</t>
-  </si>
-  <si>
-    <t>1(351.0 Rs), 2(4005.0 Rs), 3(2562.0 Rs), 4(3172.0 Rs), 5(4188.0 Rs), 6(2962.0 Rs), 7(2834.0 Rs), 8(3849.0 Rs), 9(3511.0 Rs), 10(3373.0 Rs)</t>
+    <t>1(1 times)</t>
+  </si>
+  <si>
+    <t>1(2 times), 2(4 times), 3(2 times), 4(3 times), 5(3 times), 6(3 times), 7(3 times), 8(3 times), 9(2 times), 10(2 times)</t>
+  </si>
+  <si>
+    <t>1(3.0 units)</t>
+  </si>
+  <si>
+    <t>1(3470 units), 2(1475 units), 3(2848 units), 4(1897 units), 5(2353 units), 6(2624 units), 7(2416 units), 8(1933 units), 9(2738 units), 10(2287 units)</t>
+  </si>
+  <si>
+    <t>1(1 Rs)</t>
+  </si>
+  <si>
+    <t>1(2192.0 Rs), 2(2577.0 Rs), 3(2312.0 Rs), 4(2151.0 Rs), 5(2970.0 Rs), 6(3078.0 Rs), 7(2357.0 Rs), 8(1929.0 Rs), 9(2193.0 Rs), 10(2275.0 Rs)</t>
   </si>
   <si>
     <t>Ordering part</t>
@@ -136,13 +127,13 @@
     <t>1(350000 units)</t>
   </si>
   <si>
-    <t>1(84000 units)</t>
-  </si>
-  <si>
-    <t>1(31695 units), 2(41970 units), 5(45504 units), 6(33796 units), 9(22282 units)</t>
-  </si>
-  <si>
-    <t>1(4894 units), 2(2849 units), 3(3453 units), 4(2867 units), 5(3155 units), 6(2791 units), 7(2783 units), 8(3038 units), 9(3568 units), 10(2721 units)</t>
+    <t>1(82353 units)</t>
+  </si>
+  <si>
+    <t>1(26457 units), 2(35520 units), 5(41627 units), 6(36960 units), 7(17328 units), 9(27304 units)</t>
+  </si>
+  <si>
+    <t>1(4023 units), 2(2714 units), 3(3359 units), 4(2650 units), 5(2858 units), 6(2995 units), 7(2925 units), 8(2735 units), 9(3069 units), 10(2457 units)</t>
   </si>
   <si>
     <t>1(2400000 Rs)</t>
@@ -151,13 +142,13 @@
     <t>1(1200000 Rs)</t>
   </si>
   <si>
-    <t>1(3750000 Rs)</t>
-  </si>
-  <si>
-    <t>1(300000 Rs), 2(250000 Rs), 5(1275000 Rs), 6(650000 Rs), 9(225000 Rs)</t>
-  </si>
-  <si>
-    <t>1(1680000 Rs), 2(1470000 Rs), 3(1515000 Rs), 4(1455000 Rs), 5(2340000 Rs), 6(2430000 Rs), 7(1755000 Rs), 8(990000 Rs), 9(2685000 Rs), 10(3510000 Rs)</t>
+    <t>1(3825000 Rs)</t>
+  </si>
+  <si>
+    <t>1(475000 Rs), 2(225000 Rs), 5(1250000 Rs), 6(625000 Rs), 7(25000 Rs), 9(325000 Rs)</t>
+  </si>
+  <si>
+    <t>1(1440000 Rs), 2(1815000 Rs), 3(1500000 Rs), 4(1875000 Rs), 5(2940000 Rs), 6(2250000 Rs), 7(1545000 Rs), 8(1560000 Rs), 9(2700000 Rs), 10(4095000 Rs)</t>
   </si>
   <si>
     <t>Shortage part</t>
@@ -169,6 +160,18 @@
     <t>Number of clinics</t>
   </si>
   <si>
+    <t>Total shortage</t>
+  </si>
+  <si>
+    <t>Childern shortages</t>
+  </si>
+  <si>
+    <t>adults shortages</t>
+  </si>
+  <si>
+    <t>elderly shortages</t>
+  </si>
+  <si>
     <t>Total shortage cost Incurred</t>
   </si>
   <si>
@@ -178,94 +181,94 @@
     <t>Average shortage cost incurred per clinic</t>
   </si>
   <si>
-    <t xml:space="preserve">1(0), 2(9797750000.0), 3(1135000000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(4666800000.0), 3(596400000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(13022800000.0), 3(2327300000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(12837900000.0), 3(1313400000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(17244250000.0), 3(2955250000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(19952350000.0), 3(2638900000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(17477700000.0), 3(2319000000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(9551150000.0), 3(1702700000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(20158450000.0), 3(3771850000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(34519850000.0), 3(4796400000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(195955.0), 3(22700.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(93336.0), 3(11928.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(260456.0), 3(46546.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(256758.0), 3(26268.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(344885.0), 3(59105.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(399047.0), 3(52778.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(349554.0), 3(46380.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(191023.0), 3(34054.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(403169.0), 3(75437.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0), 2(690397.0), 3(95928.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0.0), 2(979775000.0), 3(113500000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0.0), 2(777800000.0), 3(99400000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0.0), 2(1085233333.3333333), 3(193941666.66666666), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0.0), 2(1069825000.0), 3(109450000.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0.0), 2(907592105.2631578), 3(155539473.68421054), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0.0), 2(1173667647.0588236), 3(155229411.7647059), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0.0), 2(1092356250.0), 3(144937500.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0.0), 2(868286363.6363636), 3(154790909.0909091), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0.0), 2(1007922500.0), 3(188592500.0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(0.0), 2(1232851785.7142856), 3(171300000.0), </t>
+    <t xml:space="preserve">1(0), 2(17218900000.0), 3(1883500000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0), 2(4647700000.0), 3(577250000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0), 2(12605850000.0), 3(2343400000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0), 2(12856500000.0), 3(1333900000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0), 2(15705150000.0), 3(2923600000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0), 2(17897400000.0), 3(2336400000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0), 2(15629650000.0), 3(1841750000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0), 2(7984000000.0), 3(1702800000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0), 2(20237700000.0), 3(3935950000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0), 2(34414750000.0), 3(4709050000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(89.56980857261756), 3(67.07621082621083), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(96.99682778195175), 3(82.22934472934473), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(72.58758291873964), 3(92.4636994949495), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(92.37584066218314), 3(65.69641449960599), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(77.30890779136394), 3(98.63697705802969), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(86.13878541107165), 3(77.12418300653594), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(83.74941057956104), 3(67.5524501173709), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(68.42177430412724), 3(100.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(75.15485739750446), 3(99.99872967479675), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(98.67519382512157), 3(92.50844727329876), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(1721890000.0), 3(188350000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(774616666.6666666), 3(96208333.33333333), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(1050487500.0), 3(195283333.33333334), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(1071375000.0), 3(111158333.33333333), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(826586842.1052631), 3(153873684.21052632), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(1052788235.2941177), 3(137435294.11764705), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(976853125.0), 3(115109375.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(725818181.8181819), 3(154800000.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(1011885000.0), 3(196797500.0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0.0), 2(1229098214.2857144), 3(168180357.14285713), </t>
   </si>
   <si>
     <t>Nurses part</t>
@@ -635,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -708,7 +711,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>731335</v>
+        <v>716752</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -725,7 +728,7 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>1246267</v>
+        <v>1357555</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -742,7 +745,7 @@
         <v>18</v>
       </c>
       <c r="E8">
-        <v>7027004</v>
+        <v>7653432</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -778,13 +781,13 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13">
-        <v>36385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -816,17 +819,8 @@
       <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
       <c r="F16">
-        <v>2215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -837,21 +831,21 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
         <v>33</v>
       </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
       <c r="F17">
-        <v>478640.5839100076</v>
+        <v>366193.2855677805</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -859,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -876,10 +870,10 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E24">
         <v>2400000</v>
@@ -893,10 +887,10 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E25">
         <v>1200000</v>
@@ -910,13 +904,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E26">
-        <v>3750000</v>
+        <v>3825000</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -927,13 +921,13 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E27">
-        <v>2700000</v>
+        <v>2925000</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -944,38 +938,50 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E28">
-        <v>19830000</v>
+        <v>21720000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="B34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="B34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="J34" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -985,17 +991,29 @@
       <c r="C35">
         <v>10</v>
       </c>
-      <c r="D35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="D35">
+        <v>382048</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>89.56980857261756</v>
+      </c>
+      <c r="G35">
+        <v>67.07621082621083</v>
+      </c>
+      <c r="H35" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" t="s">
+        <v>65</v>
+      </c>
+      <c r="J35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -1005,17 +1023,29 @@
       <c r="C36">
         <v>6</v>
       </c>
-      <c r="D36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="D36">
+        <v>104499</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>96.99682778195175</v>
+      </c>
+      <c r="G36">
+        <v>82.22934472934473</v>
+      </c>
+      <c r="H36" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -1025,17 +1055,29 @@
       <c r="C37">
         <v>12</v>
       </c>
-      <c r="D37" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="D37">
+        <v>298985</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>72.58758291873964</v>
+      </c>
+      <c r="G37">
+        <v>92.46369949494949</v>
+      </c>
+      <c r="H37" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" t="s">
+        <v>67</v>
+      </c>
+      <c r="J37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>3</v>
       </c>
@@ -1045,17 +1087,29 @@
       <c r="C38">
         <v>12</v>
       </c>
-      <c r="D38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="D38">
+        <v>283808</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>92.37584066218314</v>
+      </c>
+      <c r="G38">
+        <v>65.69641449960599</v>
+      </c>
+      <c r="H38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -1065,17 +1119,29 @@
       <c r="C39">
         <v>19</v>
       </c>
-      <c r="D39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="D39">
+        <v>372575</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>77.30890779136394</v>
+      </c>
+      <c r="G39">
+        <v>98.63697705802969</v>
+      </c>
+      <c r="H39" t="s">
+        <v>59</v>
+      </c>
+      <c r="I39" t="s">
+        <v>69</v>
+      </c>
+      <c r="J39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>5</v>
       </c>
@@ -1085,17 +1151,29 @@
       <c r="C40">
         <v>17</v>
       </c>
-      <c r="D40" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="D40">
+        <v>404676</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>86.13878541107165</v>
+      </c>
+      <c r="G40">
+        <v>77.12418300653594</v>
+      </c>
+      <c r="H40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>6</v>
       </c>
@@ -1105,17 +1183,29 @@
       <c r="C41">
         <v>16</v>
       </c>
-      <c r="D41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="D41">
+        <v>349428</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>83.74941057956104</v>
+      </c>
+      <c r="G41">
+        <v>67.5524501173709</v>
+      </c>
+      <c r="H41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" t="s">
+        <v>71</v>
+      </c>
+      <c r="J41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>7</v>
       </c>
@@ -1125,17 +1215,29 @@
       <c r="C42">
         <v>11</v>
       </c>
-      <c r="D42" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="D42">
+        <v>193736</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>68.42177430412724</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+      <c r="J42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>8</v>
       </c>
@@ -1145,17 +1247,29 @@
       <c r="C43">
         <v>20</v>
       </c>
-      <c r="D43" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="D43">
+        <v>483473</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>75.15485739750446</v>
+      </c>
+      <c r="G43">
+        <v>99.99872967479675</v>
+      </c>
+      <c r="H43" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43" t="s">
+        <v>73</v>
+      </c>
+      <c r="J43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>9</v>
       </c>
@@ -1165,33 +1279,45 @@
       <c r="C44">
         <v>28</v>
       </c>
-      <c r="D44" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" t="s">
-        <v>73</v>
-      </c>
-      <c r="F44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="D44">
+        <v>782476</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>98.67519382512157</v>
+      </c>
+      <c r="G44">
+        <v>92.50844727329876</v>
+      </c>
+      <c r="H44" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+      <c r="J44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="B50" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1202,10 +1328,10 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>7.35</v>
+        <v>5.233333333333333</v>
       </c>
       <c r="D51">
-        <v>0.8333333333333334</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1236,10 +1362,10 @@
         <v>3</v>
       </c>
       <c r="C53">
-        <v>4.416666666666667</v>
+        <v>4.451388888888889</v>
       </c>
       <c r="D53">
-        <v>0.4166666666666667</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1270,10 +1396,10 @@
         <v>5</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>3.263157894736842</v>
       </c>
       <c r="D55">
-        <v>0.25</v>
+        <v>0.2982456140350877</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1287,10 +1413,10 @@
         <v>6</v>
       </c>
       <c r="C56">
-        <v>3.073529411764706</v>
+        <v>3.382352941176471</v>
       </c>
       <c r="D56">
-        <v>0.2647058823529412</v>
+        <v>0.3088235294117647</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1304,10 +1430,10 @@
         <v>7</v>
       </c>
       <c r="C57">
-        <v>3.098958333333333</v>
+        <v>3.385416666666667</v>
       </c>
       <c r="D57">
-        <v>0.2708333333333333</v>
+        <v>0.3125</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1321,10 +1447,10 @@
         <v>8</v>
       </c>
       <c r="C58">
-        <v>3.037878787878788</v>
+        <v>3.378787878787879</v>
       </c>
       <c r="D58">
-        <v>0.2575757575757576</v>
+        <v>0.3106060606060606</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1338,10 +1464,10 @@
         <v>9</v>
       </c>
       <c r="C59">
-        <v>4.125</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D59">
-        <v>0.3583333333333333</v>
+        <v>0.35</v>
       </c>
       <c r="E59">
         <v>0</v>

--- a/optimization/Gurobi/Children+Adults+Elderly/0.75 fraction/compiled.xlsx
+++ b/optimization/Gurobi/Children+Adults+Elderly/0.75 fraction/compiled.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\IITD\personal\BTP\code\BTP\optimization\Gurobi\Children+Adults+Elderly\0.75 fraction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415D043D-4853-4DCF-BC9F-F2A941A2868D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compiled" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -286,8 +292,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +356,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,9 +442,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,6 +494,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -637,19 +687,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="127.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="135.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="112.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -663,7 +727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -680,7 +744,7 @@
         <v>648000</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -697,7 +761,7 @@
         <v>332400</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -714,7 +778,7 @@
         <v>716752</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -731,7 +795,7 @@
         <v>1357555</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -748,12 +812,12 @@
         <v>7653432</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
@@ -770,7 +834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -790,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -801,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -812,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -823,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -840,15 +904,15 @@
         <v>33</v>
       </c>
       <c r="F17">
-        <v>366193.2855677805</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>366193.28556778049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
@@ -862,7 +926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -879,7 +943,7 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -896,7 +960,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -913,7 +977,7 @@
         <v>3825000</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -930,7 +994,7 @@
         <v>2925000</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>4</v>
       </c>
@@ -947,12 +1011,12 @@
         <v>21720000</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>46</v>
       </c>
@@ -981,7 +1045,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -998,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>89.56980857261756</v>
+        <v>89.569808572617561</v>
       </c>
       <c r="G35">
-        <v>67.07621082621083</v>
+        <v>67.076210826210826</v>
       </c>
       <c r="H35" t="s">
         <v>55</v>
@@ -1013,7 +1077,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -1030,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>96.99682778195175</v>
+        <v>96.996827781951751</v>
       </c>
       <c r="G36">
-        <v>82.22934472934473</v>
+        <v>82.229344729344731</v>
       </c>
       <c r="H36" t="s">
         <v>56</v>
@@ -1045,7 +1109,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -1062,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>72.58758291873964</v>
+        <v>72.587582918739642</v>
       </c>
       <c r="G37">
-        <v>92.46369949494949</v>
+        <v>92.463699494949495</v>
       </c>
       <c r="H37" t="s">
         <v>57</v>
@@ -1077,7 +1141,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>3</v>
       </c>
@@ -1094,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>92.37584066218314</v>
+        <v>92.375840662183137</v>
       </c>
       <c r="G38">
-        <v>65.69641449960599</v>
+        <v>65.696414499605993</v>
       </c>
       <c r="H38" t="s">
         <v>58</v>
@@ -1109,7 +1173,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -1126,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>77.30890779136394</v>
+        <v>77.308907791363936</v>
       </c>
       <c r="G39">
-        <v>98.63697705802969</v>
+        <v>98.636977058029686</v>
       </c>
       <c r="H39" t="s">
         <v>59</v>
@@ -1141,7 +1205,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>5</v>
       </c>
@@ -1158,10 +1222,10 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>86.13878541107165</v>
+        <v>86.138785411071652</v>
       </c>
       <c r="G40">
-        <v>77.12418300653594</v>
+        <v>77.124183006535944</v>
       </c>
       <c r="H40" t="s">
         <v>60</v>
@@ -1173,7 +1237,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>6</v>
       </c>
@@ -1190,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>83.74941057956104</v>
+        <v>83.749410579561044</v>
       </c>
       <c r="G41">
-        <v>67.5524501173709</v>
+        <v>67.552450117370896</v>
       </c>
       <c r="H41" t="s">
         <v>61</v>
@@ -1205,7 +1269,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>7</v>
       </c>
@@ -1237,7 +1301,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>8</v>
       </c>
@@ -1254,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>75.15485739750446</v>
+        <v>75.154857397504458</v>
       </c>
       <c r="G43">
-        <v>99.99872967479675</v>
+        <v>99.998729674796749</v>
       </c>
       <c r="H43" t="s">
         <v>63</v>
@@ -1269,7 +1333,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>9</v>
       </c>
@@ -1286,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>98.67519382512157</v>
+        <v>98.675193825121568</v>
       </c>
       <c r="G44">
-        <v>92.50844727329876</v>
+        <v>92.508447273298756</v>
       </c>
       <c r="H44" t="s">
         <v>64</v>
@@ -1301,12 +1365,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
         <v>46</v>
       </c>
@@ -1320,7 +1384,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>0</v>
       </c>
@@ -1328,16 +1392,16 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>5.233333333333333</v>
+        <v>5.2333333333333334</v>
       </c>
       <c r="D51">
-        <v>0.4583333333333333</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -1348,13 +1412,13 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <v>0.1666666666666667</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -1362,16 +1426,16 @@
         <v>3</v>
       </c>
       <c r="C53">
-        <v>4.451388888888889</v>
+        <v>4.4513888888888893</v>
       </c>
       <c r="D53">
-        <v>0.4027777777777778</v>
+        <v>0.40277777777777779</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -1382,13 +1446,13 @@
         <v>3.125</v>
       </c>
       <c r="D54">
-        <v>0.2708333333333333</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>4</v>
       </c>
@@ -1405,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>5</v>
       </c>
@@ -1416,13 +1480,13 @@
         <v>3.382352941176471</v>
       </c>
       <c r="D56">
-        <v>0.3088235294117647</v>
+        <v>0.30882352941176472</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -1439,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>7</v>
       </c>
@@ -1447,16 +1511,16 @@
         <v>8</v>
       </c>
       <c r="C58">
-        <v>3.378787878787879</v>
+        <v>3.3787878787878789</v>
       </c>
       <c r="D58">
-        <v>0.3106060606060606</v>
+        <v>0.31060606060606061</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>8</v>
       </c>
@@ -1473,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>9</v>
       </c>
